--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.65948624431034</v>
+        <v>88.31487545483324</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55234119389634</v>
+        <v>19.23007557723184</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.47004091236766</v>
+        <v>90.57773971570136</v>
       </c>
       <c r="D3" t="n">
-        <v>18.36306788987511</v>
+        <v>19.77437326959508</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.25313163090993</v>
+        <v>86.60006890639532</v>
       </c>
       <c r="D4" t="n">
-        <v>19.78301532773706</v>
+        <v>16.4243532283005</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.7423657629958</v>
+        <v>85.19713671485658</v>
       </c>
       <c r="D5" t="n">
-        <v>21.21501562908129</v>
+        <v>21.64942128956675</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>82.85466406777074</v>
+        <v>83.59530543942314</v>
       </c>
       <c r="D6" t="n">
-        <v>20.83318320126962</v>
+        <v>20.74588107458637</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.01611542645422</v>
+        <v>82.94134243184358</v>
       </c>
       <c r="D7" t="n">
-        <v>20.17684209175094</v>
+        <v>19.40518279788121</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.36138127613096</v>
+        <v>81.05333640038562</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5224322576057</v>
+        <v>19.65556812345982</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>80.37673504730783</v>
+        <v>81.72432198885853</v>
       </c>
       <c r="D9" t="n">
-        <v>20.51152237721298</v>
+        <v>17.85637737024119</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.02028498143574</v>
+        <v>79.98479738690895</v>
       </c>
       <c r="D10" t="n">
-        <v>20.58793892993642</v>
+        <v>21.60491786034087</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>77.71999134266427</v>
+        <v>80.55216737248421</v>
       </c>
       <c r="D11" t="n">
-        <v>22.32398592573046</v>
+        <v>20.31805001701973</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>76.55113942214444</v>
+        <v>75.99709461124993</v>
       </c>
       <c r="D12" t="n">
-        <v>21.00158615508094</v>
+        <v>18.98199549472654</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.1979698169902</v>
+        <v>78.61342943224905</v>
       </c>
       <c r="D13" t="n">
-        <v>20.43378490182738</v>
+        <v>20.73651721729503</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.31115035089512</v>
+        <v>77.17878772770214</v>
       </c>
       <c r="D14" t="n">
-        <v>21.91353564397598</v>
+        <v>20.01298075373622</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.392047566698</v>
+        <v>74.10848490020855</v>
       </c>
       <c r="D15" t="n">
-        <v>17.52430326274134</v>
+        <v>22.26181885977315</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>71.68833531143038</v>
+        <v>73.33083739731272</v>
       </c>
       <c r="D16" t="n">
-        <v>21.71231137229599</v>
+        <v>20.68237435581515</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03362028110793</v>
+        <v>74.53806449309158</v>
       </c>
       <c r="D17" t="n">
-        <v>22.69113391822255</v>
+        <v>18.29025669040483</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.38057236088808</v>
+        <v>74.78028923410265</v>
       </c>
       <c r="D18" t="n">
-        <v>22.11463811125406</v>
+        <v>20.87311053236673</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.27992662952553</v>
+        <v>69.69407681254</v>
       </c>
       <c r="D19" t="n">
-        <v>20.25162921470926</v>
+        <v>20.45892577830345</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.33264693893187</v>
+        <v>70.27326860626586</v>
       </c>
       <c r="D20" t="n">
-        <v>20.23458655768263</v>
+        <v>19.4836966292663</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.46201933219849</v>
+        <v>69.8066462079186</v>
       </c>
       <c r="D21" t="n">
-        <v>22.19107539691553</v>
+        <v>20.3575098167863</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.57353068162256</v>
+        <v>70.93491389560658</v>
       </c>
       <c r="D22" t="n">
-        <v>22.30944439242307</v>
+        <v>19.58511918223003</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.6719301918879</v>
+        <v>69.82319234513437</v>
       </c>
       <c r="D23" t="n">
-        <v>22.63080953226681</v>
+        <v>21.18247982042056</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.81391983852261</v>
+        <v>64.87717188389269</v>
       </c>
       <c r="D24" t="n">
-        <v>21.58660054781844</v>
+        <v>19.58027575428874</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>63.11974952193805</v>
+        <v>68.54489032037934</v>
       </c>
       <c r="D25" t="n">
-        <v>19.83835651862647</v>
+        <v>21.02167892190751</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.26766133734212</v>
+        <v>67.67944814022259</v>
       </c>
       <c r="D26" t="n">
-        <v>24.50591609956876</v>
+        <v>20.06873323955351</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.21072529895359</v>
+        <v>60.81897576880507</v>
       </c>
       <c r="D27" t="n">
-        <v>20.63722068236884</v>
+        <v>21.07064804404446</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.89197845256</v>
+        <v>63.15632890078749</v>
       </c>
       <c r="D28" t="n">
-        <v>20.68277170750616</v>
+        <v>21.55751641062303</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.51861711922921</v>
+        <v>58.61478181285711</v>
       </c>
       <c r="D29" t="n">
-        <v>19.91587026899774</v>
+        <v>17.63858901064825</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>59.29102372883322</v>
+        <v>64.30868039298626</v>
       </c>
       <c r="D30" t="n">
-        <v>19.91259822525295</v>
+        <v>17.01388344183225</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.45097998014009</v>
+        <v>58.29818751485949</v>
       </c>
       <c r="D31" t="n">
-        <v>19.58343073950699</v>
+        <v>21.24804313041258</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.74312269859184</v>
+        <v>60.49239037344328</v>
       </c>
       <c r="D32" t="n">
-        <v>18.63024327309447</v>
+        <v>19.85347995957008</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.47860058747278</v>
+        <v>58.57238697536961</v>
       </c>
       <c r="D33" t="n">
-        <v>22.14666546555613</v>
+        <v>21.42727001292829</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>61.11871302068938</v>
+        <v>58.70866343708629</v>
       </c>
       <c r="D34" t="n">
-        <v>22.92899021661319</v>
+        <v>20.36324116482626</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.95857303759865</v>
+        <v>56.74300702479979</v>
       </c>
       <c r="D35" t="n">
-        <v>22.25589683514842</v>
+        <v>22.169192818568</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.27801095020943</v>
+        <v>54.02310432578319</v>
       </c>
       <c r="D36" t="n">
-        <v>21.85026943785155</v>
+        <v>19.77233122083086</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.9389684248493</v>
+        <v>52.64931252993738</v>
       </c>
       <c r="D37" t="n">
-        <v>20.01830383054835</v>
+        <v>19.94731925526069</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.50998338538301</v>
+        <v>53.06052946710522</v>
       </c>
       <c r="D38" t="n">
-        <v>22.07398297870677</v>
+        <v>22.56930036796149</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.27608099474206</v>
+        <v>50.68926381601439</v>
       </c>
       <c r="D39" t="n">
-        <v>19.97212984393092</v>
+        <v>21.19142294567434</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.57373523925941</v>
+        <v>51.74449844262468</v>
       </c>
       <c r="D40" t="n">
-        <v>21.05082070984066</v>
+        <v>19.67928232135832</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>48.8808578222658</v>
+        <v>53.35927458585008</v>
       </c>
       <c r="D41" t="n">
-        <v>18.43269647446021</v>
+        <v>19.13356571087392</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.13516242720353</v>
+        <v>50.43399159079199</v>
       </c>
       <c r="D42" t="n">
-        <v>19.00677739717684</v>
+        <v>20.12555002998326</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.22852182134325</v>
+        <v>50.45807069517751</v>
       </c>
       <c r="D43" t="n">
-        <v>21.869722127615</v>
+        <v>21.6526376849957</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.1072138964339</v>
+        <v>47.73788600478685</v>
       </c>
       <c r="D44" t="n">
-        <v>22.88109430041956</v>
+        <v>19.49020015537816</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.49964670194814</v>
+        <v>49.878334089899</v>
       </c>
       <c r="D45" t="n">
-        <v>17.49294388250896</v>
+        <v>19.47226636965922</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.23613542939503</v>
+        <v>48.73912022312867</v>
       </c>
       <c r="D46" t="n">
-        <v>20.00533508131594</v>
+        <v>20.21644196314538</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.56949099346246</v>
+        <v>45.59043667106967</v>
       </c>
       <c r="D47" t="n">
-        <v>22.22022494576728</v>
+        <v>20.21370427498527</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.00810475387811</v>
+        <v>43.96306083775563</v>
       </c>
       <c r="D48" t="n">
-        <v>22.14770516773836</v>
+        <v>23.14555037021128</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.34393802326107</v>
+        <v>42.06213885357182</v>
       </c>
       <c r="D49" t="n">
-        <v>20.42714058926368</v>
+        <v>19.3082150604251</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.53031177187413</v>
+        <v>41.32354216764644</v>
       </c>
       <c r="D50" t="n">
-        <v>22.06802645785328</v>
+        <v>20.68805535407504</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.71138902243625</v>
+        <v>38.02439795608155</v>
       </c>
       <c r="D51" t="n">
-        <v>20.26138088401418</v>
+        <v>21.34831223628321</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.17955011811636</v>
+        <v>42.94130914565188</v>
       </c>
       <c r="D52" t="n">
-        <v>19.61791396213849</v>
+        <v>20.74700596087842</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.00651745751747</v>
+        <v>38.66957020748247</v>
       </c>
       <c r="D53" t="n">
-        <v>21.75968164315146</v>
+        <v>19.78309619492632</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.52452662820172</v>
+        <v>37.27595320813796</v>
       </c>
       <c r="D54" t="n">
-        <v>22.16700261721885</v>
+        <v>22.24788089021563</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.66333159313689</v>
+        <v>36.79740475337705</v>
       </c>
       <c r="D55" t="n">
-        <v>18.22336729381799</v>
+        <v>21.04644261956381</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.22496047764237</v>
+        <v>35.75909730445569</v>
       </c>
       <c r="D56" t="n">
-        <v>21.12200564807287</v>
+        <v>19.97014348620842</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.61042888038756</v>
+        <v>35.66447603166962</v>
       </c>
       <c r="D57" t="n">
-        <v>20.77219907478415</v>
+        <v>23.75875803301527</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.75335531790518</v>
+        <v>29.60330017004326</v>
       </c>
       <c r="D58" t="n">
-        <v>19.38808633485627</v>
+        <v>22.66571530759801</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.39729679682512</v>
+        <v>34.73969696812285</v>
       </c>
       <c r="D59" t="n">
-        <v>20.69083351072977</v>
+        <v>21.0907805985981</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.35161713033074</v>
+        <v>30.1142201347773</v>
       </c>
       <c r="D60" t="n">
-        <v>20.84768722863492</v>
+        <v>18.23930950725206</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.32743352464593</v>
+        <v>32.99907956505364</v>
       </c>
       <c r="D61" t="n">
-        <v>19.73311199800579</v>
+        <v>19.89987795528825</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.0029428226645</v>
+        <v>28.98159021582989</v>
       </c>
       <c r="D62" t="n">
-        <v>21.03347560050404</v>
+        <v>21.52712875381189</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.85844149624377</v>
+        <v>31.9873439243915</v>
       </c>
       <c r="D63" t="n">
-        <v>20.54881253378605</v>
+        <v>21.87182474474526</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.92359493518482</v>
+        <v>26.26587477787409</v>
       </c>
       <c r="D64" t="n">
-        <v>21.09811267387215</v>
+        <v>21.97646858874147</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.37884991710079</v>
+        <v>27.60766661661094</v>
       </c>
       <c r="D65" t="n">
-        <v>22.24521077342711</v>
+        <v>19.8071022504919</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.13133914612874</v>
+        <v>27.24649574424492</v>
       </c>
       <c r="D66" t="n">
-        <v>21.49259252012327</v>
+        <v>21.68615866171432</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.02135082305003</v>
+        <v>24.74581190585761</v>
       </c>
       <c r="D67" t="n">
-        <v>22.77694328143339</v>
+        <v>21.7964131658373</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.49258899511378</v>
+        <v>25.75423101521494</v>
       </c>
       <c r="D68" t="n">
-        <v>22.29276571981001</v>
+        <v>18.13645097287194</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.21123401034515</v>
+        <v>23.77656422136106</v>
       </c>
       <c r="D69" t="n">
-        <v>22.19730728690019</v>
+        <v>21.26163227392083</v>
       </c>
     </row>
   </sheetData>
